--- a/Output_Files/LaBSE_NoDup_Unique_Titles_2017.xlsx
+++ b/Output_Files/LaBSE_NoDup_Unique_Titles_2017.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,10 +468,169 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>§25A. Hope and Lifetime Learning credits</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>(a) Allowance of credit
+In the case of an individual, there shall be allowed as a credit against the tax imposed by this chapter for the taxable year the amount equal to the sum of—
+(1) the Hope Scholarship Credit, plus
+(2) the Lifetime Learning Credit.
+(b) Hope Scholarship Credit
+(1) Per student credit
+In the case of any eligible student for whom an election is in effect under this section for any taxable year, the Hope Scholarship Credit is an amount equal to the sum of—
+(A) 100 percent of so much of the qualified tuition and related expenses paid by the taxpayer during the taxable year (for education furnished to the eligible student during any academic period beginning in such taxable year) as does not exceed $1,000, plus
+(B) 50 percent of such expenses so paid as exceeds $1,000 but does not exceed the applicable limit.
+(2) Limitations applicable to Hope Scholarship Credit
+(A) Credit allowed only for 2 taxable years
+An election to have this section apply with respect to any eligible student for purposes of the Hope Scholarship Credit under subsection (a)(1) may not be made for any taxable year if such an election (by the taxpayer or any other individual) is in effect with respect to such student for any 2 prior taxable years.
+(B) Credit allowed for year only if individual is at least ½ time student for portion of year
+The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for a taxable year with respect to the qualified tuition and related expenses of an individual unless such individual is an eligible student for at least one academic period which begins during such year.
+(C) Credit allowed only for first 2 years of postsecondary education
+The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for a taxable year with respect to the qualified tuition and related expenses of an eligible student if the student has completed (before the beginning of such taxable year) the first 2 years of postsecondary education at an eligible educational institution.
+(D) Denial of credit if student convicted of a felony drug offense
+The Hope Scholarship Credit under subsection (a)(1) shall not be allowed for qualified tuition and related expenses for the enrollment or attendance of a student for any academic period if such student has been convicted of a Federal or State felony offense consisting of the possession or distribution of a controlled substance before the end of the taxable year with or within which such period ends.
+(3) Eligible student
+For purposes of this subsection, the term "eligible student" means, with respect to any academic period, a student who—
+(A) meets the requirements of section 484(a)(1) of the Higher Education Act of 1965 (20 U.S.C. 1091(a)(1)), as in effect on the date of the enactment of this section, and
+(B) is carrying at least ½ the normal full-time work load for the course of study the student is pursuing.
+(4) Applicable limit
+For purposes of paragraph (1)(B), the applicable limit for any taxable year is an amount equal to 2 times the dollar amount in effect under paragraph (1)(A) for such taxable year.
+(c) Lifetime Learning Credit
+(1) Per taxpayer credit
+The Lifetime Learning Credit for any taxpayer for any taxable year is an amount equal to 20 percent of so much of the qualified tuition and related expenses paid by the taxpayer during the taxable year (for education furnished during any academic period beginning in such taxable year) as does not exceed $10,000 ($5,000 in the case of taxable years beginning before January 1, 2003).
+(2) Special rules for determining expenses
+(A) Coordination with Hope Scholarship
+The qualified tuition and related expenses with respect to an individual who is an eligible student for whom a Hope Scholarship Credit under subsection (a)(1) is allowed for the taxable year shall not be taken into account under this subsection.
+(B) Expenses eligible for Lifetime Learning Credit
+For purposes of paragraph (1), qualified tuition and related expenses shall include expenses described in subsection (f)(1) with respect to any course of instruction at an eligible educational institution to acquire or improve job skills of the individual.
+(d) Limitation based on modified adjusted gross income
+(1) In general
+The amount which would (but for this subsection) be taken into account under subsection (a) for the taxable year shall be reduced (but not below zero) by the amount determined under paragraph (2).
+(2) Amount of reduction
+The amount determined under this paragraph is the amount which bears the same ratio to the amount which would be so taken into account as—
+(A) the excess of—
+(i) the taxpayer's modified adjusted gross income for such taxable year, over
+(ii) $40,000 ($80,000 in the case of a joint return), bears to
+(B) $10,000 ($20,000 in the case of a joint return).
+(3) Modified adjusted gross income
+The term "modified adjusted gross income" means the adjusted gross income of the taxpayer for the taxable year increased by any amount excluded from gross income under section 911, 931, or 933.
+(e) Election not to have section apply
+A taxpayer may elect not to have this section apply with respect to the qualified tuition and related expenses of an individual for any taxable year.
+(f) Definitions
+For purposes of this section—
+(1) Qualified tuition and related expenses
+(A) In general
+The term "qualified tuition and related expenses" means tuition and fees required for the enrollment or attendance of—
+(i) the taxpayer,
+(ii) the taxpayer's spouse, or
+(iii) any dependent of the taxpayer with respect to whom the taxpayer is allowed a deduction under section 151,
+at an eligible educational institution for courses of instruction of such individual at such institution.
+(B) Exception for education involving sports, etc.
+Such term does not include expenses with respect to any course or other education involving sports, games, or hobbies, unless such course or other education is part of the individual's degree program.
+(C) Exception for nonacademic fees
+Such term does not include student activity fees, athletic fees, insurance expenses, or other expenses unrelated to an individual's academic course of instruction.
+(2) Eligible educational institution
+The term "eligible educational institution" means an institution—
+(A) which is described in section 481 of the Higher Education Act of 1965 (20 U.S.C. 1088), as in effect on the date of the enactment of this section, and
+(B) which is eligible to participate in a program under title IV of such Act.
+(g) Special rules
+(1) Identification requirement
+No credit shall be allowed under subsection (a) to a taxpayer with respect to the qualified tuition and related expenses of an individual unless the taxpayer includes the name and taxpayer identification number of such individual on the return of tax for the taxable year.
+(2) Adjustment for certain scholarships, etc.
+The amount of qualified tuition and related expenses otherwise taken into account under subsection (a) with respect to an individual for an academic period shall be reduced (before the application of subsections (b), (c), and (d)) by the sum of any amounts paid for the benefit of such individual which are allocable to such period as—
+(A) a qualified scholarship which is excludable from gross income under section 117,
+(B) an educational assistance allowance under chapter 30, 31, 32, 34, or 35 of title 38, United States Code, or under chapter 1606 of title 10, United States Code, and
+(C) a payment (other than a gift, bequest, devise, or inheritance within the meaning of section 102(a)) for such individual's educational expenses, or attributable to such individual's enrollment at an eligible educational institution, which is excludable from gross income under any law of the United States.
+(3) Treatment of expenses paid by dependent
+If a deduction under section 151 with respect to an individual is allowed to another taxpayer for a taxable year beginning in the calendar year in which such individual's taxable year begins—
+(A) no credit shall be allowed under subsection (a) to such individual for such individual's taxable year,
+(B) qualified tuition and related expenses paid by such individual during such individual's taxable year shall be treated for purposes of this section as paid by such other taxpayer, and
+(C) a statement described in paragraph (8) and received by such individual shall be treated as received by the taxpayer.
+(4) Treatment of certain prepayments
+If qualified tuition and related expenses are paid by the taxpayer during a taxable year for an academic period which begins during the first 3 months following such taxable year, such academic period shall be treated for purposes of this section as beginning during such taxable year.
+(5) Denial of double benefit
+No credit shall be allowed under this section for any expense for which a deduction is allowed under any other provision of this chapter.
+(6) No credit for married individuals filing separate returns
+If the taxpayer is a married individual (within the meaning of section 7703), this section shall apply only if the taxpayer and the taxpayer's spouse file a joint return for the taxable year.
+(7) Nonresident aliens
+If the taxpayer is a nonresident alien individual for any portion of the taxable year, this section shall apply only if such individual is treated as a resident alien of the United States for purposes of this chapter by reason of an election under subsection (g) or (h) of section 6013.
+(8) Payee statement requirement
+Except as otherwise provided by the Secretary, no credit shall be allowed under this section unless the taxpayer receives a statement furnished under section 6050S(d) which contains all of the information required by paragraph (2) thereof.
+(h) Inflation adjustments
+(1) Dollar limitation on amount of credit
+(A) In general
+In the case of a taxable year beginning after 2001, each of the $1,000 amounts under subsection (b)(1) shall be increased by an amount equal to—
+(i) such dollar amount, multiplied by
+(ii) the cost-of-living adjustment determined under section 1(f)(3) for the calendar year in which the taxable year begins, determined by substituting "calendar year 2000" for "calendar year 2016" in subparagraph (A)(ii) thereof.
+(B) Rounding
+If any amount as adjusted under subparagraph (A) is not a multiple of $100, such amount shall be rounded to the next lowest multiple of $100.
+(2) Income limits
+(A) In general
+In the case of a taxable year beginning after 2001, the $40,000 and $80,000 amounts in subsection (d)(2) shall each be increased by an amount equal to—
+(i) such dollar amount, multiplied by
+(ii) the cost-of-living adjustment determined under section 1(f)(3) for the calendar year in which the taxable year begins, determined by substituting "calendar year 2000" for "calendar year 2016" in subparagraph (A)(ii) thereof.
+(B) Rounding
+If any amount as adjusted under subparagraph (A) is not a multiple of $1,000, such amount shall be rounded to the next lowest multiple of $1,000.
+(i) American Opportunity Tax Credit
+In the case of any taxable year beginning after 2008—
+(1) Increase in credit
+The Hope Scholarship Credit shall be an amount equal to the sum of—
+(A) 100 percent of so much of the qualified tuition and related expenses paid by the taxpayer during the taxable year (for education furnished to the eligible student during any academic period beginning in such taxable year) as does not exceed $2,000, plus
+(B) 25 percent of such expenses so paid as exceeds $2,000 but does not exceed $4,000.
+(2) Credit allowed for first 4 years of post-secondary education
+Subparagraphs (A) and (C) of subsection (b)(2) shall be applied by substituting "4" for "2".
+(3) Qualified tuition and related expenses to include required course materials
+For purposes of determining the Hope Scholarship Credit, subsection (f)(1)(A) shall be applied by substituting "tuition, fees, and course materials" for "tuition and fees".
+(4) Increase in AGI limits for Hope Scholarship Credit
+In lieu of applying subsection (d) with respect to the Hope Scholarship Credit, such credit (determined without regard to this paragraph) shall be reduced (but not below zero) by the amount which bears the same ratio to such credit (as so determined) as—
+(A) the excess of—
+(i) the taxpayer's modified adjusted gross income (as defined in subsection (d)(3)) for such taxable year, over
+(ii) $80,000 ($160,000 in the case of a joint return), bears to
+(B) $10,000 ($20,000 in the case of a joint return).
+(5) Portion of credit made refundable
+40 percent of so much of the credit allowed under subsection (a) as is attributable to the Hope Scholarship Credit (determined after application of paragraph (4) and without regard to this paragraph and section 26(a)) shall be treated as a credit allowable under subpart C (and not allowed under subsection (a)). The preceding sentence shall not apply to any taxpayer for any taxable year if such taxpayer is a child to whom subsection (g) of section 1 applies for such taxable year.
+(6) Identification numbers
+(A) Student
+The requirements of subsection (g)(1) shall not be treated as met with respect to the Hope Scholarship Credit unless the individual's taxpayer identification number was issued on or before the due date for filing the return of tax for the taxable year.
+(B) Taxpayer
+No Hope Scholarship Credit shall be allowed under this section if the identifying number of the taxpayer was issued after the due date for filing the return for the taxable year.
+(C) Institution
+No Hope Scholarship Credit shall be allowed under this section unless the taxpayer includes the employer identification number of any institution to which qualified tuition and related expenses were paid with respect to the individual.
+(7) Restrictions on taxpayers who improperly claimed credit in prior year
+(A) Taxpayers making prior fraudulent or reckless claims
+(i) In general
+No credit shall be allowed under this section for any taxable year in the disallowance period.
+(ii) Disallowance period
+For purposes of clause (i), the disallowance period is—
+(I) the period of 10 taxable years after the most recent taxable year for which there was a final determination that the taxpayer's claim of credit under this section was due to fraud, and
+(II) the period of 2 taxable years after the most recent taxable year for which there was a final determination that the taxpayer's claim of credit under this section was due to reckless or intentional disregard of rules and regulations (but not due to fraud).
+(B) Taxpayers making improper prior claims
+In the case of a taxpayer who is denied credit under this section for any taxable year as a result of the deficiency procedures under subchapter B of chapter 63, no credit shall be allowed under this section for any subsequent taxable year unless the taxpayer provides such information as the Secretary may require to demonstrate eligibility for such credit.
+(j) Regulations
+The Secretary may prescribe such regulations as may be necessary or appropriate to carry out this section, including regulations providing for a recapture of the credit allowed under this section in cases where there is a refund in a subsequent taxable year of any amount which was taken into account in determining the amount of such credit.</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2513</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>§30A. Puerto Rico economic activity credit</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>(a) Allowance of credit
 (1) In general
@@ -522,25 +681,25 @@
 This section shall apply to taxable years beginning after December 31, 1995, and before January 1, 2006.</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>779</v>
       </c>
-      <c r="E2" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>§45M. Energy efficient appliance credit</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>(a) General rule
 (1) In general
@@ -632,25 +791,25 @@
 No amount shall be allowed as a credit under subsection (a) with respect to which the taxpayer has not submitted such information or certification as the Secretary, in consultation with the Secretary of Energy, determines necessary.</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1484</v>
       </c>
-      <c r="E3" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>§48D. Qualifying therapeutic discovery project credit</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>(a) In general
 For purposes of section 46, the qualifying therapeutic discovery project credit for any taxable year is an amount equal to 50 percent of the qualified investment for such taxable year with respect to any qualifying therapeutic discovery project of an eligible taxpayer.
@@ -739,25 +898,25 @@
 Any such grant shall not be includible in the gross income of the taxpayer.</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1380</v>
       </c>
-      <c r="E4" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>§71. Alimony and separate maintenance payments</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>(a) General rule
 Gross income includes amounts received as alimony or separate maintenance payments.
@@ -827,34 +986,11 @@
 (2) For taxable status of income of an estate or trust in the case of divorce, etc., see section 682.</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1028</v>
       </c>
-      <c r="E5" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>§139C. COBRA premium assistance</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>In the case of an assistance eligible individual (as defined in section 3001 of title III of division B of the American Recovery and Reinvestment Act of 2009), gross income does not include any premium reduction provided under subsection (a) of such section.</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>43</v>
-      </c>
       <c r="E6" t="n">
-        <v>193</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +1001,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>§139C. COBRA premium assistance</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>In the case of an assistance eligible individual (as defined in section 3001 of title III of division B of the American Recovery and Reinvestment Act of 2009), gross income does not include any premium reduction provided under subsection (a) of such section.</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E7" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>§215. Alimony, etc., payments</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>(a) General rule
 In the case of an individual, there shall be allowed as a deduction an amount equal to the alimony or separate maintenance payments paid during such individual's taxable year.
@@ -882,25 +1041,25 @@
 No deduction shall be allowed under this section with respect to any payment if, by reason of section 682 (relating to income of alimony trusts), the amount thereof is not includible in such individual's gross income.</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>182</v>
       </c>
-      <c r="E7" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>§682. Income of an estate or trust in case of divorce, etc.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>(a) Inclusion in gross income of wife
 There shall be included in the gross income of a wife who is divorced or legally separated under a decree of divorce or of separate maintenance (or who is separated from her husband under a written separation agreement) the amount of the income of any trust which such wife is entitled to receive and which, except for this section, would be includible in the gross income of her husband, and such amount shall not, despite any other provision of this subtitle, be includible in the gross income of such husband. This subsection shall not apply to that part of any such income of the trust which the terms of the decree, written separation agreement, or trust instrument fix, in terms of an amount of money or a portion of such income, as a sum which is payable for the support of minor children of such husband. In case such income is less than the amount specified in the decree, agreement, or instrument, for the purpose of applying the preceding sentence, such income, to the extent of such sum payable for such support, shall be considered a payment for such support.
@@ -910,25 +1069,25 @@
 For definitions of "husband" and "wife", as used in this section, see section 7701(a)(17).</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>255</v>
       </c>
-      <c r="E8" t="n">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>§936. Puerto Rico and possession tax credit</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>(a) Allowance of credit
 (1) In general
@@ -1131,25 +1290,25 @@
 (a) The amount of the cost sharing payment determined under subparagraph (C)(i)(I), and any increase in the amount thereof in accordance with subparagraph (C)(i)(III)(a), shall not be treated as income of the recipient, but shall reduce the amount of the deductions (and the amount of reductions in e</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>9575</v>
       </c>
-      <c r="E9" t="n">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>3.Subchapter</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Subchapter W—District of Columbia Enterprise Zone</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Sec.
 1400.
@@ -1162,25 +1321,25 @@
 First-time homebuyer credit for District of Columbia.</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>25</v>
       </c>
-      <c r="E10" t="n">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>§1400. Establishment of DC Zone</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>(a) In general
 For purposes of this title—
@@ -1205,25 +1364,25 @@
 The designation under subchapter U of the census tracts referred to in subsection (b)(1) as an enterprise community shall terminate on December 31, 2011.</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>310</v>
       </c>
-      <c r="E11" t="n">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>§1400A. Tax-exempt economic development bonds</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>(a) In general
 In the case of the District of Columbia Enterprise Zone, subparagraph (A) of section 1394(c)(1) (relating to limitation on amount of bonds) shall be applied by substituting "$15,000,000" for "$3,000,000" and section 1394(b)(3)(B)(iii) shall be applied without regard to the employee residency requirement.
@@ -1231,25 +1390,25 @@
 This section shall apply to bonds issued during the period beginning on January 1, 1998, and ending on December 31, 2011.</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>71</v>
       </c>
-      <c r="E12" t="n">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>§1400B. Zero percent capital gains rate</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>(a) Exclusion
 Gross income shall not include qualified capital gain from the sale or exchange of any DC Zone asset held for more than 5 years.
@@ -1326,25 +1485,25 @@
 (2) any gain attributable to periods before January 1, 1998, or after December 31, 2016.</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>1202</v>
       </c>
-      <c r="E13" t="n">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>§1400C. First-time homebuyer credit for District of Columbia</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(a) Allowance of credit
 In the case of an individual who is a first-time homebuyer of a principal residence in the District of Columbia during any taxable year, there shall be allowed as a credit against the tax imposed by this chapter for the taxable year an amount equal to so much of the purchase price of the residence as does not exceed $5,000.
@@ -1397,25 +1556,25 @@
 This section shall apply to property purchased after August 4, 1997, and before January 1, 2012.</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>840</v>
       </c>
-      <c r="E14" t="n">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>3.Subchapter</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Subchapter X—Renewal Communities</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Part
 I.
@@ -1426,25 +1585,25 @@
 Additional incentives.</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="E15" t="n">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>§1400E. Designation of renewal communities</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>(a) Designation
 (1) Definitions
@@ -1582,25 +1741,25 @@
 Any expansion under this subsection shall take effect as provided in subsection (b).</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>2397</v>
       </c>
-      <c r="E16" t="n">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>4.Part</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>PART II—RENEWAL COMMUNITY CAPITAL GAIN; RENEWAL COMMUNITY BUSINESS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Sec.
 1400F.
@@ -1609,25 +1768,25 @@
 Renewal community business defined.</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>11</v>
       </c>
-      <c r="E17" t="n">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="E18" t="n">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>§1400F. Renewal community capital gain</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>(a) General rule
 Gross income does not include any qualified capital gain from the sale or exchange of a qualified community asset held for more than 5 years.
@@ -1679,48 +1838,48 @@
 The Secretary shall prescribe such regulations as may be appropriate to carry out the purposes of this section, including regulations to prevent the abuse of the purposes of this section.</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D19" t="n">
         <v>690</v>
       </c>
-      <c r="E18" t="n">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>§1400G. Renewal community business defined</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>For purposes of this subchapter, the term "renewal community business" means any entity or proprietorship which would be a qualified business entity or qualified proprietorship under section 1397C if references to renewal communities were substituted for references to empowerment zones in such section.</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>43</v>
-      </c>
       <c r="E19" t="n">
-        <v>1063</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>§1400G. Renewal community business defined</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>For purposes of this subchapter, the term "renewal community business" means any entity or proprietorship which would be a qualified business entity or qualified proprietorship under section 1397C if references to renewal communities were substituted for references to empowerment zones in such section.</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>43</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>4.Part</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>PART III—ADDITIONAL INCENTIVES</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Sec.
 1400H.
@@ -1731,25 +1890,25 @@
 Increase in expensing under section 179.</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>17</v>
       </c>
-      <c r="E20" t="n">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>§1400H. Renewal community employment credit</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>(a) In general
 Subject to the modification in subsection (b), a renewal community shall be treated as an empowerment zone for purposes of section 1396 with respect to wages paid or incurred after December 31, 2001.
@@ -1759,25 +1918,25 @@
 (2) subsection (c) thereof shall be applied by substituting "$10,000" for "$15,000" each place it appears.</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>72</v>
       </c>
-      <c r="E21" t="n">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>§1400I. Commercial revitalization deduction</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>(a) General rule
 At the election of the taxpayer, either—
@@ -1844,25 +2003,25 @@
 This section shall not apply to any building placed in service after December 31, 2009.</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>982</v>
       </c>
-      <c r="E22" t="n">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="E23" t="n">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>§1400J. Increase in expensing under section 179</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>(a) In general
 For purposes of section 1397A—
@@ -1879,25 +2038,25 @@
 The rules of subsections (a)(2) and (b) of section 1397D shall apply for purposes of this section.</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>152</v>
       </c>
-      <c r="E23" t="n">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="E24" t="n">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>3.Subchapter</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Subchapter Y—Short-Term Regional Benefits</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Part
 I.
@@ -1911,50 +2070,50 @@
 2005—Pub. L. 109–135, title I, §101(b)(3), Dec. 21, 2005, 119 Stat. 2593, substituted "Short-Term Regional Benefits" for "New York Liberty Zone Benefits" in subchapter heading and amended analysis generally, substituting items for parts I and II for item 1400L.</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>78</v>
       </c>
-      <c r="E24" t="n">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="E25" t="n">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>4.Part</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>PART I—TAX BENEFITS FOR NEW YORK LIBERTY ZONE</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Sec.
 1400L.
 Tax benefits for New York Liberty Zone.</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>9</v>
       </c>
-      <c r="E25" t="n">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="E26" t="n">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>§1400L. Tax benefits for New York Liberty Zone</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>(a) Expansion of work opportunity tax credit
 (1) In general
@@ -2109,25 +2268,25 @@
 For purposes of this section, the terms "Governor" and "Mayor" mean the Governor of the State of New York and the Mayor of the City of New York, New York, respectively.</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>2705</v>
       </c>
-      <c r="E26" t="n">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="E27" t="n">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>4.Part</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>PART II—TAX BENEFITS FOR GO ZONES</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Sec.
 1400M.
@@ -2151,25 +2310,25 @@
 2005—Pub. L. 109–135, title I, §§102(b), 103(b)(3), title II, §201(b)(3), Dec. 21, 2005, 119 Stat. 2594, 2595, 2607, added items 1400O to 1400S.</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>78</v>
       </c>
-      <c r="E27" t="n">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="E28" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>§1400N. Tax benefits for Gulf Opportunity Zone</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>(a) Tax-exempt bond financing
 (1) In general
@@ -2461,25 +2620,25 @@
 (D) Cr</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>7072</v>
       </c>
-      <c r="E28" t="n">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="E29" t="n">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>§1400O. Education tax benefits</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>In the case of an individual who attends an eligible educational institution (as defined in section 25A(f)(2)) located in the Gulf Opportunity Zone for any taxable year beginning during 2005 or 2006—
 (1) in applying section 25A, the term "qualified tuition and related expenses" shall include any costs which are qualified higher education expenses (as defined in section 529(e)(3)),
@@ -2487,25 +2646,25 @@
 (3) section 25A(c)(1) shall be applied by substituting "40 percent" for "20 percent".</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>103</v>
       </c>
-      <c r="E29" t="n">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="E30" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>§1400P. Housing tax benefits</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>(a) Exclusion of employer provided housing for individual affected by Hurricane Katrina
 (1) In general
@@ -2532,25 +2691,25 @@
 (2) ending on the date which is 6 months after the first day described in paragraph (1).</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D31" t="n">
         <v>347</v>
       </c>
-      <c r="E30" t="n">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="E31" t="n">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>§1400Q. Special rules for use of retirement funds</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>(a) Tax-favored withdrawals from retirement plans
 (1) In general
@@ -2672,25 +2831,25 @@
 (ii) such plan or contract amendment applies retroactively for such period.</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D32" t="n">
         <v>2117</v>
       </c>
-      <c r="E31" t="n">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="E32" t="n">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>§1400R. Employment relief</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>(a) Employee retention credit for employers affected by Hurricane Katrina
 (1) In general
@@ -2754,25 +2913,25 @@
 An employee shall not be treated as an eligible employee for purposes of this subsection for any period with respect to any employer if such employer is allowed a credit under subsection (a) or (b) or section 51 with respect to such employee for such period.</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>1239</v>
       </c>
-      <c r="E32" t="n">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="E33" t="n">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>§1400S. Additional tax relief provisions</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>(a) Temporary suspension of limitations on charitable contributions
 (1) In general
@@ -2854,25 +3013,25 @@
 With respect to taxable years beginning in 2005 or 2006, the Secretary may make such adjustments in the application of the internal revenue laws as may be necessary to ensure that taxpayers do not lose any deduction or credit or experience a change of filing status by reason of temporary relocations by reason of Hurricane Katrina, Hurricane Rita, or Hurricane Wilma. Any adjustments made under the preceding sentence shall ensure that an individual is not taken into account by more than one taxpayer with respect to the same tax benefit.</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>1295</v>
       </c>
-      <c r="E33" t="n">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="E34" t="n">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>§1400T. Special rules for mortgage revenue bonds</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>(a) In general
 In the case of financing provided with respect to owner-occupied residences in the GO Zone, the Rita GO Zone, or the Wilma GO Zone, section 143 shall be applied—
@@ -2883,25 +3042,25 @@
 Subsection (a) shall not apply to financing provided after December 31, 2010.</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D35" t="n">
         <v>90</v>
       </c>
-      <c r="E34" t="n">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="E35" t="n">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>4.Part</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>PART III—RECOVERY ZONE BONDS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Sec.
 1400U–1.
@@ -2912,25 +3071,25 @@
 Recovery zone facility bonds.</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D36" t="n">
         <v>18</v>
       </c>
-      <c r="E35" t="n">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="E36" t="n">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>§1400U–1. Allocation of recovery zone bonds</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>(a) Allocations
 (1) In general
@@ -2961,25 +3120,25 @@
 (3) any area for which a designation as an empowerment zone or renewal community is in effect.</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>451</v>
       </c>
-      <c r="E36" t="n">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="E37" t="n">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>§1400U–2. Recovery zone economic development bonds</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>(a) In general
 In the case of a recovery zone economic development bond—
@@ -3002,25 +3161,25 @@
 (3) expenditures for job training and educational programs.</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>261</v>
       </c>
-      <c r="E37" t="n">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="E38" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>§1400U–3. Recovery zone facility bonds</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>(a) In general
 For purposes of part IV of subchapter B (relating to tax exemption requirements for State and local bonds), the term "exempt facility bond" includes any recovery zone facility bond.
@@ -3049,25 +3208,25 @@
 Sections 146 (relating to volume cap) and 147(d) (relating to acquisition of existing property not permitted) shall not apply to any recovery zone facility bond.</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D39" t="n">
         <v>386</v>
       </c>
-      <c r="E38" t="n">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="E39" t="n">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>4.Part</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>PART 1 1 —PROCEDURE</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Sec.
 6231.
@@ -3083,79 +3242,55 @@
 1 So in original. Probably should be "PART III".</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D40" t="n">
         <v>38</v>
       </c>
-      <c r="E39" t="n">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>4.Part</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>PART II—LEVY</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Sec.
-6331.
-Levy and distraint.
-6332.
-Surrender of property subject to levy.
-6333.
-Production of books.
-6334.
-Property exempt from levy.
-6335.
-Sale of seized property.
-6336.
-Sale of perishable goods.
-6337.
-Redemption of property.
-6338.
-Certificate of sale; deed of real property.
-6339.
-Legal effect of certificate of sale of personal property and deed of real property.
-6340.
-Records of sale.
-6341.
-Expense of levy and sale.
-6342.
-Application of proceeds of levy.
-6343.
-Authority to release levy and return property.
-6344.
-Cross references.
-Amendments
-1998—Pub. L. 105–206, title III, §3401(b), July 22, 1998, 112 Stat. 749, added part heading.
-1966—Pub. L. 89–719, title I, §104(j), Nov. 2, 1966, 80 Stat. 1138, inserted "and return property" in item 6343.</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>120</v>
-      </c>
       <c r="E40" t="n">
-        <v>2107</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>4.Part</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PART 2 1 —DEFINITIONS AND SPECIAL RULES</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sec.
+6241.
+Definitions and special rules.
+Prior Provisions
+A prior subchapter D, Treatment of Electing Large Partnerships, consisted of sections 6240 to 6255, prior to repeal by Pub. L. 114–74, title XI, §1101(b)(2), (g), Nov. 2, 2015, 129 Stat. 625, 638, applicable to returns filed for partnership taxable years beginning after Dec. 31, 2017.
+Section 6240, added Pub. L. 105–34, title XII, §1222(a), Aug. 5, 1997, 111 Stat. 1009, related to application of subchapter D to electing large partnerships and partners in such partnerships.
+Another prior subchapter D, Tax Treatment of Subchapter S Items, consisted of sections 6241 to 6245, prior to repeal by Pub. L. 104–188, title I, §1307(c)(1), Aug. 20, 1996, 110 Stat. 1781.
+1 So in original. Probably should be "PART IV".</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>125</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>§6432. COBRA premium assistance</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>(a) In general
 The person to whom premiums are payable under COBRA continuation coverage shall be reimbursed as provided in subsection (c) for the amount of premiums not paid by assistance eligible individuals by reason of section 3001(a) of title III of division B of the American Recovery and Reinvestment Act of 2009.
@@ -3204,25 +3339,25 @@
 (2) the application of this section to group health plans that are multiemployer plans (as defined in section 3(37) of the Employee Retirement Income Security Act of 1974).</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D42" t="n">
         <v>881</v>
       </c>
-      <c r="E41" t="n">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="E42" t="n">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>§6720C. Penalty for failure to notify health plan of cessation of eligibility for COBRA premium assistance</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>(a) In general
 Any person required to notify a group health plan under section 3001(a)(2)(C) of title III of division B of the American Recovery and Reinvestment Act of 2009 who fails to make such a notification at such time and in such manner as the Secretary of Labor may require shall pay a penalty of 110 percent of the premium reduction provided under such section after termination of eligibility under such subsection.
@@ -3230,25 +3365,25 @@
 No penalty shall be imposed under subsection (a) with respect to any failure if it is shown that such failure is due to reasonable cause and not to willful neglect.</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>107</v>
       </c>
-      <c r="E42" t="n">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="E43" t="n">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>6.Section</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>§7326. Disposal of forfeited or abandoned property in special cases</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>(a) Coin-operated gaming devices
 Any coin-operated gaming device as defined in section 4462 1 upon which a tax is imposed by section 4461 1 and which has been forfeited under any provision of this title shall be destroyed, or otherwise disposed of, in such manner as may be prescribed by the Secretary.
@@ -3256,34 +3391,11 @@
 For provisions relating to disposal of forfeited firearms, see section 5872(b).</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D44" t="n">
         <v>65</v>
       </c>
-      <c r="E43" t="n">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>6.Section</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>§9013. Effective date of chapter</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>The provisions of this chapter shall take effect on January 1, 1973.</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>12</v>
-      </c>
       <c r="E44" t="n">
-        <v>2585</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="45">
@@ -3294,10 +3406,76 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>§9013. Effective date of chapter</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>The provisions of this chapter shall take effect on January 1, 1973.</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>12</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>§9032. Definitions</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>For purposes of this chapter—
+(1) The term "authorized committee" means, with respect to the candidates of a political party for President and Vice President of the United States, any political committee which is authorized in writing by such candidates to incur expenses to further the election of such candidates. Such authorization shall be addressed to the chairman of such political committee, and a copy of such authorization shall be filed by such candidates with the Commission. Any withdrawal of any authorization shall also be in writing and shall be addressed and filed in the same manner as the authorization.
+(2) The term "candidate" means an individual who seeks nomination for election to be President of the United States. For purposes of this paragraph, an individual shall be considered to seek nomination for election if he (A) takes the action necessary under the law of a State to qualify himself for nomination for election, (B) receives contributions or incurs qualified campaign expenses, or (C) gives his consent for any other person to receive contributions or to incur qualified campaign expenses on his behalf. The term "candidate" shall not include any individual who is not actively conducting campaigns in more than one State in connection with seeking nomination for election to be President of the United States.
+(3) The term "Commission" means the Federal Election Commission established by section 306(a)(1) of the Federal Election Campaign Act of 1971.
+(4) Except as provided by section 9034(a), the term "contribution"—
+(A) means a gift, subscription, loan, advance, or deposit of money, or anything of value, the payment of which was made on or after the beginning of the calendar year immediately preceding the calendar year of the presidential election with respect to which such gift, subscription, loan, advance, or deposit of money, or anything of value, is made, for the purpose of influencing the result of a primary election,
+(B) means a contract, promise, or agreement, whether or not legally enforceable, to make a contribution for any such purpose,
+(C) means funds received by a political committee which are transferred to that committee from another committee, and
+(D) means the payment by any person other than a candidate, or his authorized committee, of compensation for the personal services of another person which are rendered to the candidate or committee without charge, but
+(E) does not include—
+(i) except as provided in subparagraph (D), the value of personal services rendered to or for the benefit of a candidate by an individual who receives no compensation for rendering such service to or for the benefit of the candidate, or
+(ii) payments under section 9037.
+(5) The term "matching payment account" means the Presidential Primary Matching Payment Account established under section 9037(a).
+(6) The term "matching payment period" means the period beginning with the beginning of the calendar year in which a general election for the office of President of the United States will be held and ending on the date on which the national convention of the party whose nomination a candidate seeks nominates its candidate for the office of President of the United States, or, in the case of a party which does not make such nomination by national convention, ending on the earlier of (A) the date such party nominates its candidate for the office of President of the United States, or (B) the last day of the last national convention held by a major party during such calendar year.
+(7) The term "primary election" means an election, including a runoff election or a nominating convention or caucus held by a political party, for the selection of delegates to a national nominating convention of a political party, or for the expression of a preference for the nomination of persons for election to the office of President of the United States.
+(8) The term "political committee" means any individual, committee, association, or organization (whether or not incorporated) which accepts contributions or incurs qualified campaign expenses for the purpose of influencing, or attempting to influence, the nomination of any person for election to the office of President of the United States.
+(9) The term "qualified campaign expense" means a purchase, payment, distribution, loan, advance, deposit, or gift of money or of anything of value—
+(A) incurred by a candidate, or by his authorized committee, in connection with his campaign for nomination for election, and
+(B) neither the incurring nor payment of which constitutes a violation of any law of the United States or of the State in which the expense is incurred or paid.
+For purposes of this paragraph, an expense is incurred by a candidate or by an authorized committee if it is incurred by a person specifically authorized in writing by the candidate or committee, as the case may be, to incur such expense on behalf of the candidate or the committee.
+(10) The term "State" means each State of the United States and the District of Columbia.</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>825</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6.Section</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>§9832. Definitions</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>(a) Group health plan
 For purposes of this chapter, the term "group health plan" has the meaning given to such term by section 5000(b)(1).
@@ -3386,11 +3564,11 @@
 (D) other activities related to the creation, renewal, or replacement of a contract of health insurance or health benefits.</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D47" t="n">
         <v>1126</v>
       </c>
-      <c r="E45" t="n">
-        <v>2657</v>
+      <c r="E47" t="n">
+        <v>2607</v>
       </c>
     </row>
   </sheetData>
